--- a/biology/Botanique/Fieldia_australis/Fieldia_australis.xlsx
+++ b/biology/Botanique/Fieldia_australis/Fieldia_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fieldia australis est une espèce de plantes de la famille des Gesneriaceae. Elle est monotypique dans son genre et endémique d'Australie.
 Il s'agit d'une plante grimpante épiphyte s'accrochant par ses racines au tronc ou aux branches d'un arbre hôte.
 Les feuilles opposées, simples, oblongues, dentées font 3 à 7 cm de long sur 1 à 3 de large. Les fleurs tubulaires à pétales soudés de 3 cm de long sont de couleur crème. Le fruit est une baie de couleur pourpre.
-Attention, World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[2] ne reconnait pas ce genre et cette espèce et en font les synonymes de:
+Attention, World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) ne reconnait pas ce genre et cette espèce et en font les synonymes de:
 Vandopsis Pfitzer (Syn. de Fieldia Gaudich.)
 Vandopsis gigantea (Lindl.) Pfitzer (Syn de Fieldia gigantea (Lindl.) Rchb.f.)
 Vandopsis lissochiloides (Gaudich.) Pfitzer (Syn de Fieldia lissochiloides Gaudich.)
